--- a/target/test-classes/com/sysmatech/TestData/LoginData5.xlsx
+++ b/target/test-classes/com/sysmatech/TestData/LoginData5.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="2580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>CategoryName</t>
   </si>
@@ -24,20 +25,17 @@
     <t>CompanyName</t>
   </si>
   <si>
-    <t>Rakesh1111</t>
+    <t>Rakesh11</t>
   </si>
   <si>
-    <t>Asset Ext/1111</t>
-  </si>
-  <si>
-    <t>Asset Ext/1112</t>
+    <t>AutomationCategory99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +80,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -128,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -160,9 +166,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,6 +201,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -369,19 +377,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,7 +398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -397,13 +406,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -411,24 +415,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
